--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF38096D-B844-B64A-A38B-678CC3141B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434784B0-9A57-5343-8CF9-F3EDE000524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -9742,7 +9742,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9806,6 +9806,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10125,7 +10126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="162" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -12836,8 +12837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="B1372" sqref="B1372"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14042,7 +14043,7 @@
       <c r="A150" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="25">
         <v>600</v>
       </c>
     </row>

--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434784B0-9A57-5343-8CF9-F3EDE000524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11885279-AD9F-7541-A6AC-E7A3FEC3FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -10126,8 +10126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView zoomScale="162" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12837,7 +12837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
@@ -24128,6 +24128,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -24298,22 +24313,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24330,21 +24347,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11885279-AD9F-7541-A6AC-E7A3FEC3FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A64051-07BA-9248-9730-A160B7DC5FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -10126,7 +10126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="162" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -12837,8 +12837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24128,21 +24128,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -24313,24 +24298,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24347,4 +24330,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A64051-07BA-9248-9730-A160B7DC5FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D3EDC-3E21-644C-9B59-014C7535AFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12837,13 +12837,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500"/>
+    <sheetView tabSelected="1" topLeftCell="A895" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A914" sqref="A914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="100" customWidth="1"/>
+    <col min="1" max="1" width="242.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24128,6 +24128,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -24298,22 +24313,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24330,21 +24347,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D3EDC-3E21-644C-9B59-014C7535AFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39041EB-72FE-6342-BB27-D65AADF302C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12837,8 +12837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A895" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A914" sqref="A914"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12863,7 +12863,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>68</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>80</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>636</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>637</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>638</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>640</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>642</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>644</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>646</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>648</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>650</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>652</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>654</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>656</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>657</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>658</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>690</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>691</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>692</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>693</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>694</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>695</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>696</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>698</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>700</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>702</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>704</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>706</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>708</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>710</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>712</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>713</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>714</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>715</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>716</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>718</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>720</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>722</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>724</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>726</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>728</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>730</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>732</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>734</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>736</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>738</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>740</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>742</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>743</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>744</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>745</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>746</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>747</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>748</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>749</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>750</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>751</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>752</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>753</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>754</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>755</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>767</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>787</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>788</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>790</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>792</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>794</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>795</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>818</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>819</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>820</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>821</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>823</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>824</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>826</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>828</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>91</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>105</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>850</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>115</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>117</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>120</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>858</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>129</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>133</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>864</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>865</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>867</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>869</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>871</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>873</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>874</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>897</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>899</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>901</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>903</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>905</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>907</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>909</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>911</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>913</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>915</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>917</v>
       </c>
@@ -14636,7 +14636,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>919</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>921</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>923</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>925</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>927</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>929</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>931</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>933</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>935</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>937</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>939</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>941</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>943</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>945</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>947</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>949</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>951</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>953</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>955</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>957</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>959</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>961</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>963</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>965</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>967</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>969</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>971</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>973</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>975</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>977</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>979</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>981</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>983</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>985</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>987</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>989</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>991</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>993</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>995</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>997</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>999</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>1001</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>1003</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>1005</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>1007</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>1009</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>1011</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>1013</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>1015</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>1017</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>1019</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>1021</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>1023</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>1025</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>1027</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>1029</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>1031</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>1033</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>1035</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>1037</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>1039</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>1041</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>1043</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>1045</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>1047</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>1049</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>1051</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>1053</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>1055</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>1057</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>1059</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>1061</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>1063</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>1064</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>1065</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>1067</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>1069</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>1071</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>1078</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>1080</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>1082</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>1084</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>1086</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>1088</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>1090</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>1092</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>1094</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>1096</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>1098</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>1100</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>1102</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>1104</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>1106</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>1108</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>1110</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>1112</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>1114</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>1116</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>1118</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>1120</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>1122</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>1124</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>1126</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>1128</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>1130</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>1132</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>1134</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>1136</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>1138</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>1140</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>1142</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>1144</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>1147</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>1148</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>1149</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>1151</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>1153</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>1155</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>1157</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>1159</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>1161</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>1163</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>1165</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>1167</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>1169</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>1171</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>1173</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>1175</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>1177</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>1179</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>1181</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>1183</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>1185</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>1187</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>1189</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>1191</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>1193</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>1195</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>1197</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>1199</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>1201</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>1203</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>1205</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>1207</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>1209</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>1211</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>1213</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>1215</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>1217</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>1219</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>139</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>1221</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>1222</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>1224</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>1226</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>1228</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>1230</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>1232</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>1234</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>1236</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>1237</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>1239</v>
       </c>
@@ -16012,12 +16012,12 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A398" s="8" t="s">
         <v>1244</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A399" s="8" t="s">
         <v>1246</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A400" s="8" t="s">
         <v>1248</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A401" s="8" t="s">
         <v>1250</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>1252</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>1254</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>154</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>155</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>156</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>157</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>158</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>159</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>1285</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>164</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>1477</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>1478</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
         <v>1485</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
         <v>1486</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
         <v>1487</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
         <v>1488</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
         <v>1489</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
         <v>1490</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
         <v>1491</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
         <v>1492</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
         <v>1493</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
         <v>1494</v>
       </c>
@@ -18042,7 +18042,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
         <v>1496</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
         <v>1498</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
         <v>1500</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
         <v>1502</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
         <v>1504</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
         <v>1506</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
         <v>1508</v>
       </c>
@@ -18098,7 +18098,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
         <v>1510</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
         <v>1512</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
         <v>1514</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
         <v>1516</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
         <v>1518</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
         <v>1520</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A666" s="12" t="s">
         <v>1522</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A667" s="12" t="s">
         <v>1524</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A668" s="12" t="s">
         <v>1526</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A669" s="12" t="s">
         <v>1528</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A670" s="12" t="s">
         <v>1530</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A671" s="12" t="s">
         <v>1532</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A672" s="12" t="s">
         <v>1534</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A673" s="12" t="s">
         <v>1536</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A674" s="12" t="s">
         <v>1538</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A675" s="12" t="s">
         <v>1540</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A676" s="12" t="s">
         <v>1542</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A677" s="12" t="s">
         <v>1544</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A678" s="12" t="s">
         <v>1546</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A679" s="12" t="s">
         <v>1548</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A680" s="12" t="s">
         <v>1550</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A681" s="12" t="s">
         <v>1552</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A682" s="12" t="s">
         <v>1554</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A683" s="12" t="s">
         <v>1556</v>
       </c>
@@ -18290,7 +18290,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A684" s="12" t="s">
         <v>1558</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A685" s="12" t="s">
         <v>1560</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A686" s="12" t="s">
         <v>1562</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A687" s="12" t="s">
         <v>1564</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A688" s="12" t="s">
         <v>1566</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A689" s="12" t="s">
         <v>1568</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A690" s="12" t="s">
         <v>1570</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A691" s="12" t="s">
         <v>1572</v>
       </c>
@@ -18354,7 +18354,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A692" s="12" t="s">
         <v>1574</v>
       </c>
@@ -18362,7 +18362,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A693" s="12" t="s">
         <v>1576</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A694" s="12" t="s">
         <v>1578</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="695" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A695" s="12" t="s">
         <v>1580</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="696" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A696" s="12" t="s">
         <v>1582</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A697" s="12" t="s">
         <v>1584</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A698" s="12" t="s">
         <v>1586</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A699" s="12" t="s">
         <v>1588</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A700" s="12" t="s">
         <v>1590</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A701" s="12" t="s">
         <v>1592</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A702" s="12" t="s">
         <v>1594</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A703" s="12" t="s">
         <v>1596</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A704" s="12" t="s">
         <v>1598</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A705" s="12" t="s">
         <v>1600</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="706" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A706" s="12" t="s">
         <v>1602</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A707" s="12" t="s">
         <v>1604</v>
       </c>
@@ -18522,7 +18522,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
         <v>1609</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
         <v>1686</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
         <v>1687</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="789" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
         <v>1688</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="790" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A790" s="3" t="s">
         <v>1689</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="791" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
         <v>1690</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="792" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
         <v>1691</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="793" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A793" s="3" t="s">
         <v>1693</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="794" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
         <v>1695</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="795" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
         <v>1697</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="796" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
         <v>1699</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="797" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
         <v>1701</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="798" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
         <v>1703</v>
       </c>
@@ -19210,7 +19210,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="799" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
         <v>1705</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="800" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
         <v>1707</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="801" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
         <v>1709</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="802" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
         <v>1711</v>
       </c>
@@ -19242,7 +19242,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="803" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
         <v>1713</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="804" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A804" s="3" t="s">
         <v>1715</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="805" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
         <v>1717</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="806" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
         <v>1719</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="807" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
         <v>1721</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="808" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A808" s="3" t="s">
         <v>1723</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="809" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
         <v>1725</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="810" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
         <v>1727</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="811" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
         <v>1729</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="812" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
         <v>1731</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="813" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
         <v>1733</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="814" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
         <v>1735</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="815" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A815" s="3" t="s">
         <v>1737</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="816" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A816" s="3" t="s">
         <v>1739</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="817" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A817" s="3" t="s">
         <v>1741</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="818" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A818" s="3" t="s">
         <v>1743</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="819" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A819" s="3" t="s">
         <v>1745</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="821" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A821" s="3" t="s">
         <v>388</v>
       </c>
@@ -20138,7 +20138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="915" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
         <v>405</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="916" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A916" s="3" t="s">
         <v>406</v>
       </c>
@@ -20154,7 +20154,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="917" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A917" s="3" t="s">
         <v>407</v>
       </c>
@@ -20162,7 +20162,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="918" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A918" s="3" t="s">
         <v>408</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="919" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A919" s="3" t="s">
         <v>409</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="920" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A920" s="3" t="s">
         <v>410</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="921" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A921" s="3" t="s">
         <v>411</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="922" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A922" s="3" t="s">
         <v>412</v>
       </c>
@@ -20202,7 +20202,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="923" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A923" s="3" t="s">
         <v>1913</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="924" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A924" s="3" t="s">
         <v>1915</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1032" s="3" t="s">
         <v>431</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1033" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1033" s="3" t="s">
         <v>432</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="1065" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1065" s="3" t="s">
         <v>2172</v>
       </c>
@@ -21818,7 +21818,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1125" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1125" s="3" t="s">
         <v>2269</v>
       </c>
@@ -22618,7 +22618,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1225" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1225" s="3" t="s">
         <v>2433</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="1226" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1226" s="3" t="s">
         <v>2435</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="1227" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1227" s="3" t="s">
         <v>2437</v>
       </c>
@@ -22642,7 +22642,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="1228" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1228" s="3" t="s">
         <v>2439</v>
       </c>
@@ -22650,7 +22650,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="1229" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1229" s="3" t="s">
         <v>2441</v>
       </c>
@@ -22658,7 +22658,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="1230" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1230" s="3" t="s">
         <v>2443</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="1231" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1231" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1231" s="3" t="s">
         <v>2445</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1232" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1232" s="3" t="s">
         <v>2447</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="1233" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1233" s="3" t="s">
         <v>2449</v>
       </c>
@@ -22690,7 +22690,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="1234" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1234" s="3" t="s">
         <v>2451</v>
       </c>
@@ -22698,7 +22698,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="1235" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1235" s="3" t="s">
         <v>2453</v>
       </c>
@@ -22706,7 +22706,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="1236" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1236" s="3" t="s">
         <v>2455</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="1237" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1237" s="3" t="s">
         <v>2457</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="1238" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1238" s="3" t="s">
         <v>2459</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="1239" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1239" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1239" s="3" t="s">
         <v>2461</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="1240" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1240" s="3" t="s">
         <v>2463</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="1241" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1241" s="3" t="s">
         <v>2465</v>
       </c>
@@ -22754,7 +22754,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="1242" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1242" s="3" t="s">
         <v>2467</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="1243" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1243" s="3" t="s">
         <v>2469</v>
       </c>
@@ -22770,7 +22770,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="1244" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1244" s="3" t="s">
         <v>2471</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="1245" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1245" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1245" s="3" t="s">
         <v>2473</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="1246" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1246" s="12" t="s">
         <v>2475</v>
       </c>
@@ -22794,7 +22794,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1247" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1247" s="12" t="s">
         <v>2477</v>
       </c>
@@ -22802,7 +22802,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="1248" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1248" s="12" t="s">
         <v>2479</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="1249" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1249" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1249" s="12" t="s">
         <v>2481</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="1250" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1250" s="12" t="s">
         <v>2483</v>
       </c>
@@ -22826,7 +22826,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="1251" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1251" s="12" t="s">
         <v>2485</v>
       </c>
@@ -22834,7 +22834,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="1252" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1252" s="12" t="s">
         <v>2487</v>
       </c>
@@ -22842,7 +22842,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="1253" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1253" s="12" t="s">
         <v>2489</v>
       </c>
@@ -22850,7 +22850,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="1254" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1254" s="12" t="s">
         <v>2491</v>
       </c>
@@ -22858,7 +22858,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="1255" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1255" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1255" s="12" t="s">
         <v>2493</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="1256" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1256" s="12" t="s">
         <v>2495</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="1257" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1257" s="12" t="s">
         <v>2497</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="1258" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1258" s="12" t="s">
         <v>2499</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="1259" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1259" s="12" t="s">
         <v>2501</v>
       </c>
@@ -22898,7 +22898,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="1260" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1260" s="12" t="s">
         <v>2503</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="1261" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1261" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1261" s="12" t="s">
         <v>2505</v>
       </c>
@@ -22914,7 +22914,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="1262" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1262" s="12" t="s">
         <v>2507</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="1263" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1263" s="12" t="s">
         <v>2509</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="1264" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1264" s="12" t="s">
         <v>2511</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="1265" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1265" s="12" t="s">
         <v>2513</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="1266" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1266" s="12" t="s">
         <v>2515</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="1267" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1267" s="12" t="s">
         <v>2517</v>
       </c>
@@ -22962,7 +22962,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="1268" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1268" s="12" t="s">
         <v>2519</v>
       </c>
@@ -22970,7 +22970,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="1269" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1269" s="12" t="s">
         <v>2521</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="1270" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1270" s="12" t="s">
         <v>2523</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="1271" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1271" s="12" t="s">
         <v>2525</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="1272" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1272" s="12" t="s">
         <v>2527</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="1273" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1273" s="12" t="s">
         <v>2529</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="1274" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1274" s="12" t="s">
         <v>2531</v>
       </c>
@@ -23018,7 +23018,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="1275" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1275" s="12" t="s">
         <v>2533</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="1276" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1276" s="12" t="s">
         <v>2535</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="1277" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1277" s="12" t="s">
         <v>2537</v>
       </c>
@@ -23042,7 +23042,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1278" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1278" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1278" s="12" t="s">
         <v>2539</v>
       </c>
@@ -23050,7 +23050,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="1279" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1279" s="12" t="s">
         <v>2541</v>
       </c>
@@ -23058,7 +23058,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="1280" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1280" s="12" t="s">
         <v>2543</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="1281" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1281" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1281" s="12" t="s">
         <v>2545</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="1282" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1282" s="12" t="s">
         <v>2547</v>
       </c>
@@ -23082,7 +23082,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="1283" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1283" s="12" t="s">
         <v>2549</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="1284" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1284" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1284" s="12" t="s">
         <v>2551</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="1285" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1285" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1285" s="12" t="s">
         <v>2553</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="1286" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1286" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1286" s="12" t="s">
         <v>2555</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="1287" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1287" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1287" s="12" t="s">
         <v>2557</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="1288" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1288" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1288" s="12" t="s">
         <v>2559</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="1289" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1289" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1289" s="12" t="s">
         <v>2561</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="1290" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1290" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1290" s="12" t="s">
         <v>2563</v>
       </c>
@@ -23146,7 +23146,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="1291" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1291" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1291" s="12" t="s">
         <v>2565</v>
       </c>
@@ -23154,7 +23154,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="1292" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1292" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1292" s="12" t="s">
         <v>2567</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="1293" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1293" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1293" s="12" t="s">
         <v>2569</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="1294" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1294" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1294" s="12" t="s">
         <v>2571</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="1295" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1295" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1295" s="12" t="s">
         <v>2573</v>
       </c>
@@ -23634,7 +23634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1352" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1352" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1352" s="3" t="s">
         <v>2672</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="1353" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1353" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1353" s="3" t="s">
         <v>2674</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="1354" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1354" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1354" s="3" t="s">
         <v>2676</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="1355" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1355" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1355" s="3" t="s">
         <v>2678</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="1356" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1356" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1356" s="3" t="s">
         <v>2680</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1357" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1357" s="3" t="s">
         <v>2682</v>
       </c>
@@ -24128,21 +24128,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -24313,24 +24298,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24347,4 +24330,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39041EB-72FE-6342-BB27-D65AADF302C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E870EE-CE48-AC4D-96F6-6918BCC467D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="3145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="3146">
   <si>
     <t>Question</t>
   </si>
@@ -9633,6 +9633,9 @@
   </si>
   <si>
     <t>What is your sex?</t>
+  </si>
+  <si>
+    <t>Do you currently live in the United States?</t>
   </si>
 </sst>
 </file>
@@ -10124,10 +10127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView zoomScale="162" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10217,64 +10220,64 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
+      <c r="A11" s="10" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>515</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4">
-        <v>22015</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>517</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <v>22015</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>517</v>
@@ -10282,351 +10285,351 @@
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>3143</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>3109</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>3110</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>3103</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>3111</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>3112</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>523</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>3117</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>36</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>3127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>3131</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>3132</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>3133</v>
+        <v>531</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>237</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>535</v>
+        <v>3136</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>536</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>3137</v>
+        <v>549</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>12</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>12</v>
@@ -10634,7 +10637,7 @@
     </row>
     <row r="63" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
@@ -10642,7 +10645,7 @@
     </row>
     <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>12</v>
@@ -10650,55 +10653,55 @@
     </row>
     <row r="65" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>551</v>
+        <v>3140</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>3141</v>
+        <v>551</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>552</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B68" s="4">
-        <v>1</v>
+        <v>3142</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B70" s="4">
         <v>1999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>12</v>
@@ -10706,318 +10709,323 @@
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>560</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>561</v>
+        <v>38</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>12</v>
+        <v>560</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>563</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B85" s="7" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="B93" s="7">
-        <v>1111</v>
+        <v>592</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B94" s="7">
-        <v>2222</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B95" s="7">
-        <v>3333</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B96" s="7">
-        <v>4444</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B97" s="7">
-        <v>5555</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="B98" s="13">
-        <v>6666</v>
+        <v>598</v>
+      </c>
+      <c r="B98" s="7">
+        <v>5555</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="B99" s="7">
-        <v>7777</v>
+        <v>599</v>
+      </c>
+      <c r="B99" s="13">
+        <v>6666</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B100" s="7">
-        <v>8888</v>
+        <v>7777</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
+      </c>
+      <c r="B101" s="7">
+        <v>8888</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>607</v>
+      <c r="A104" s="12" t="s">
+        <v>606</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>33</v>
+        <v>605</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>609</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="176" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B111" s="7" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
@@ -11032,11 +11040,11 @@
       <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="5"/>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
@@ -11054,10 +11062,10 @@
       <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
+      <c r="A124" s="3"/>
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
@@ -11073,7 +11081,6 @@
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="6"/>
     </row>
     <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
@@ -11081,6 +11088,7 @@
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
@@ -11092,7 +11100,7 @@
       <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
@@ -11105,10 +11113,10 @@
     </row>
     <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
-      <c r="B139" s="7"/>
     </row>
     <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
+      <c r="B140" s="7"/>
     </row>
     <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
@@ -11143,14 +11151,17 @@
     <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="9"/>
-      <c r="B152" s="7"/>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="9"/>
+      <c r="B153" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{980C6B0D-F2EC-7742-BECD-CA979B616340}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{6AB1EB43-B88D-0B4E-AC54-848B1B859B56}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{980C6B0D-F2EC-7742-BECD-CA979B616340}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{6AB1EB43-B88D-0B4E-AC54-848B1B859B56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12837,8 +12848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A1046" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1073" sqref="A1073"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E870EE-CE48-AC4D-96F6-6918BCC467D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752275F2-5998-A54C-8405-ABAA09444B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -10129,8 +10129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12848,8 +12848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView topLeftCell="A1046" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1073" sqref="A1073"/>
+    <sheetView tabSelected="1" topLeftCell="A1367" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1376" sqref="A1376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24139,6 +24139,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -24309,22 +24324,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24341,21 +24358,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752275F2-5998-A54C-8405-ABAA09444B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0CB48B-EE94-8744-85CA-B66B2B5102AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -10129,8 +10129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12848,8 +12848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1367" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1376" sqref="A1376"/>
+    <sheetView topLeftCell="A1226" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1326" sqref="A1326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24139,21 +24139,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -24324,24 +24309,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24358,4 +24341,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0CB48B-EE94-8744-85CA-B66B2B5102AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1262EF-5B91-BB4E-8570-6807806B3E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="2420" windowWidth="24380" windowHeight="13480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
     <sheet name="IIQScenario2" sheetId="5" r:id="rId2"/>
-    <sheet name="RASSurveyScenario2" sheetId="4" r:id="rId3"/>
+    <sheet name="NewAppointment" sheetId="6" r:id="rId3"/>
+    <sheet name="ClinicVisit" sheetId="7" r:id="rId4"/>
+    <sheet name="RASSurveyScenario2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="3146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="3192">
   <si>
     <t>Question</t>
   </si>
@@ -9636,6 +9638,144 @@
   </si>
   <si>
     <t>Do you currently live in the United States?</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Durations (hours)</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Report Status</t>
+  </si>
+  <si>
+    <t>Scheduled Date/Time</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Test note</t>
+  </si>
+  <si>
+    <t>RASopathy</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Test Provider</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Other (Specify)</t>
+  </si>
+  <si>
+    <t>Other Report Status (Specify)</t>
+  </si>
+  <si>
+    <t>Report status test</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Other Appointment (Specify)</t>
+  </si>
+  <si>
+    <t>Other appointment test</t>
+  </si>
+  <si>
+    <t>Other Location (Specify)</t>
+  </si>
+  <si>
+    <t>Other location test</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Visit Type</t>
+  </si>
+  <si>
+    <t>Clinic Date</t>
+  </si>
+  <si>
+    <t>Primary Provider</t>
+  </si>
+  <si>
+    <t>Scheduling Coordinator</t>
+  </si>
+  <si>
+    <t>Preclinic Note Complete</t>
+  </si>
+  <si>
+    <t>Coordination with Other NIH Protocol</t>
+  </si>
+  <si>
+    <t>CRIS Order Status</t>
+  </si>
+  <si>
+    <t>Scheduling Status</t>
+  </si>
+  <si>
+    <t>After Hours Emergency Contact Name</t>
+  </si>
+  <si>
+    <t>After Hours Emergency Contact Number</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Appointment Made</t>
+  </si>
+  <si>
+    <t>Lauren Black</t>
+  </si>
+  <si>
+    <t>Hodalis Gaytan</t>
+  </si>
+  <si>
+    <t>Specify NIH Protocol/Specialty</t>
+  </si>
+  <si>
+    <t>NIH protcol test</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Test Contact</t>
+  </si>
+  <si>
+    <t>Status Date</t>
+  </si>
+  <si>
+    <t>ScreenerTwoFirst T ScreenerTwoLast</t>
+  </si>
+  <si>
+    <t>04/02/1990</t>
   </si>
 </sst>
 </file>
@@ -9745,7 +9885,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9810,6 +9950,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10129,8 +10276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11171,8 +11318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB9B37E-A256-1E4F-9B35-9A6E20F6FDB7}">
   <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12845,10 +12992,299 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4588FF6F-A8EF-054D-B3B4-987B41B9B6EE}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6062CACA-7DB6-F649-B34B-70D7904C31B5}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView topLeftCell="A1226" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A1326" sqref="A1326"/>
     </sheetView>
   </sheetViews>
@@ -24139,6 +24575,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -24309,22 +24760,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24341,21 +24794,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD571750-82ED-6A4D-B5CE-F24A1AD3B362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E308097-AC41-1742-BC34-C9286474AAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10325,7 +10325,7 @@
   <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E308097-AC41-1742-BC34-C9286474AAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0BED2-15DF-854E-9E5B-AF25F9E40EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="10060" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
-    <sheet name="IIQScenario2" sheetId="5" r:id="rId2"/>
-    <sheet name="NewAppointment" sheetId="6" r:id="rId3"/>
-    <sheet name="ClinicVisit" sheetId="7" r:id="rId4"/>
-    <sheet name="RASSurveyScenario2" sheetId="4" r:id="rId5"/>
+    <sheet name="SubjectFlags" sheetId="8" r:id="rId2"/>
+    <sheet name="IIQScenario2" sheetId="5" r:id="rId3"/>
+    <sheet name="NewAppointment" sheetId="6" r:id="rId4"/>
+    <sheet name="ClinicVisit" sheetId="7" r:id="rId5"/>
+    <sheet name="RASSurveyScenario2" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="3208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="3219">
   <si>
     <t>Question</t>
   </si>
@@ -9824,6 +9825,39 @@
   </si>
   <si>
     <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Year of diagnosis Option 4</t>
+  </si>
+  <si>
+    <t>Participation Status</t>
+  </si>
+  <si>
+    <t>Eligible for Clinic</t>
+  </si>
+  <si>
+    <t>Individual Affected Status</t>
+  </si>
+  <si>
+    <t>Individual Genetic Status</t>
+  </si>
+  <si>
+    <t>Family Genetic Status</t>
+  </si>
+  <si>
+    <t>Eligible to Participate</t>
+  </si>
+  <si>
+    <t>Clinically Affected</t>
+  </si>
+  <si>
+    <t>Variant Positive</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Subject Comments</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -10324,7 +10358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -11443,6 +11477,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F400B75-2DF6-0441-8E77-101DA5DAEA4D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB9B37E-A256-1E4F-9B35-9A6E20F6FDB7}">
   <dimension ref="A1:B207"/>
   <sheetViews>
@@ -11978,7 +12077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>3008</v>
       </c>
@@ -11994,7 +12093,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>3006</v>
       </c>
@@ -13119,7 +13218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4588FF6F-A8EF-054D-B3B4-987B41B9B6EE}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -13261,7 +13360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6062CACA-7DB6-F649-B34B-70D7904C31B5}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -13408,7 +13507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
@@ -24703,6 +24802,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -24873,22 +24987,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24905,21 +25021,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0BED2-15DF-854E-9E5B-AF25F9E40EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7727871-CD95-6644-A46A-EB09377BFE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="10060" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
     <sheet name="SubjectFlags" sheetId="8" r:id="rId2"/>
-    <sheet name="IIQScenario2" sheetId="5" r:id="rId3"/>
-    <sheet name="NewAppointment" sheetId="6" r:id="rId4"/>
-    <sheet name="ClinicVisit" sheetId="7" r:id="rId5"/>
-    <sheet name="RASSurveyScenario2" sheetId="4" r:id="rId6"/>
+    <sheet name="rasScenario2Consent" sheetId="9" r:id="rId3"/>
+    <sheet name="Consent" sheetId="10" r:id="rId4"/>
+    <sheet name="IIQScenario2" sheetId="5" r:id="rId5"/>
+    <sheet name="NewAppointment" sheetId="6" r:id="rId6"/>
+    <sheet name="ClinicVisit" sheetId="7" r:id="rId7"/>
+    <sheet name="RASSurveyScenario2" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="3219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="3268">
   <si>
     <t>Question</t>
   </si>
@@ -9858,6 +9860,153 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Consent Date</t>
+  </si>
+  <si>
+    <t>Consent By</t>
+  </si>
+  <si>
+    <t>Rene Aguilar</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Current/Previous</t>
+  </si>
+  <si>
+    <t>Consent call scheduled time</t>
+  </si>
+  <si>
+    <t>Consent Call Date</t>
+  </si>
+  <si>
+    <t>Short Form Consent</t>
+  </si>
+  <si>
+    <t>Interpreter used?</t>
+  </si>
+  <si>
+    <t>Interpreter Name or ID</t>
+  </si>
+  <si>
+    <t>Interpreter Language</t>
+  </si>
+  <si>
+    <t>Interpreter Witness?</t>
+  </si>
+  <si>
+    <t>Interpreter Signed</t>
+  </si>
+  <si>
+    <t>Copy of Consent/Assent Provided Before Signing</t>
+  </si>
+  <si>
+    <t>Protocol Discussed in Private Setting</t>
+  </si>
+  <si>
+    <t>Participant Verbalized Understanding of Study Conditions and Participation</t>
+  </si>
+  <si>
+    <t>Questions Addressed Before Signing</t>
+  </si>
+  <si>
+    <t>Consent/Assent Obtained Before Study Procedures</t>
+  </si>
+  <si>
+    <t>Copy of Signed/Dated Consent/Assent Given to Participant</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>Consent Form</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>iMed</t>
+  </si>
+  <si>
+    <t>Not developmentally able to give assent</t>
+  </si>
+  <si>
+    <t>Legal Documentation Received</t>
+  </si>
+  <si>
+    <t>Consent Version</t>
+  </si>
+  <si>
+    <t>Consent/Assent Status</t>
+  </si>
+  <si>
+    <t>Consent/Assent Category</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Parent/Guardian Status</t>
+  </si>
+  <si>
+    <t>Number of Guardian Signatures required</t>
+  </si>
+  <si>
+    <t>Parent/Guardian 1 Signed</t>
+  </si>
+  <si>
+    <t>Parent/Guardian 1 Name</t>
+  </si>
+  <si>
+    <t>Parent/Guardian 2 Signed</t>
+  </si>
+  <si>
+    <t>Parent/Guardian 2 Name</t>
+  </si>
+  <si>
+    <t>Number of LARs</t>
+  </si>
+  <si>
+    <t>LAR 1 Signed</t>
+  </si>
+  <si>
+    <t>LAR 1 Name</t>
+  </si>
+  <si>
+    <t>LAR 2 Signed</t>
+  </si>
+  <si>
+    <t>LAR 2 Name</t>
+  </si>
+  <si>
+    <t>Consent Status</t>
+  </si>
+  <si>
+    <t>Future Use of Specimens and Data by NIH</t>
+  </si>
+  <si>
+    <t>Future Use by Collaborators</t>
+  </si>
+  <si>
+    <t>Future Identifiable Use by Collaborators</t>
+  </si>
+  <si>
+    <t>Return of Genetic Findings</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Sent to Medidata</t>
+  </si>
+  <si>
+    <t>Assent signed</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -9967,7 +10116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10038,6 +10187,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11480,7 +11632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F400B75-2DF6-0441-8E77-101DA5DAEA4D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11542,6 +11694,347 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798CD789-C68D-D14A-9620-844496DD9ED2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68E42E2-294A-9347-A83B-FE2A03CE7613}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="63.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="26" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB9B37E-A256-1E4F-9B35-9A6E20F6FDB7}">
   <dimension ref="A1:B207"/>
   <sheetViews>
@@ -13218,7 +13711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4588FF6F-A8EF-054D-B3B4-987B41B9B6EE}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -13360,7 +13853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6062CACA-7DB6-F649-B34B-70D7904C31B5}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -13507,7 +14000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
@@ -24802,12 +25295,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -24816,7 +25303,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -24987,16 +25474,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -25004,7 +25488,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25021,4 +25505,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7727871-CD95-6644-A46A-EB09377BFE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764242BE-0794-5740-B9BC-DE29721DC27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="3268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="3273">
   <si>
     <t>Question</t>
   </si>
@@ -9868,9 +9868,6 @@
     <t>Consent By</t>
   </si>
   <si>
-    <t>Rene Aguilar</t>
-  </si>
-  <si>
     <t>Assigned to</t>
   </si>
   <si>
@@ -9928,9 +9925,6 @@
     <t>Collection Method</t>
   </si>
   <si>
-    <t>iMed</t>
-  </si>
-  <si>
     <t>Not developmentally able to give assent</t>
   </si>
   <si>
@@ -10006,7 +10000,28 @@
     <t>Assent signed</t>
   </si>
   <si>
-    <t>Comments</t>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Yes (default)</t>
+  </si>
+  <si>
+    <t>Consented only</t>
+  </si>
+  <si>
+    <t>CBIIT Test Account</t>
+  </si>
+  <si>
+    <t>CHARMS e-consent</t>
+  </si>
+  <si>
+    <t>Alisa Goldstein</t>
   </si>
 </sst>
 </file>
@@ -10116,7 +10131,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10188,7 +10203,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11711,8 +11727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68E42E2-294A-9347-A83B-FE2A03CE7613}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11723,314 +11739,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>3132</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>3142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>3219</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>3149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
         <v>3220</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B6" s="29" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>3221</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="B7" s="29" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>3223</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="B8" s="29" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>3224</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>3149</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>3225</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B12" s="29"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>3149</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B14" s="26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B29" s="29"/>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B30" s="29"/>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B31" s="29"/>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B32" s="29"/>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B33" s="29"/>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B34" s="29"/>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B35" s="29"/>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B36" s="29"/>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B37" s="29"/>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B38" s="29"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="B15" s="26" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B40" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>3234</v>
-      </c>
-      <c r="B16" s="26" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
         <v>3235</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B43" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
         <v>3236</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B44" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>3237</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>3238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>3240</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>3244</v>
-      </c>
-      <c r="B25" s="26" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>3149</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>3246</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>3249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>3251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>3252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>3253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>3254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
-        <v>3255</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>3256</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>3257</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>3258</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
-        <v>3259</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>3260</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
-        <v>3261</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
-        <v>3262</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="30" t="s">
         <v>3263</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="B46" s="29"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
         <v>3264</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>3266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
-        <v>3267</v>
-      </c>
+      <c r="B47" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -25304,6 +25348,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -25474,12 +25524,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
   <ds:schemaRefs>
@@ -25489,6 +25533,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25505,13 +25558,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/java/CHARMS/resources/RASScenario2.xlsx
+++ b/src/test/java/CHARMS/resources/RASScenario2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764242BE-0794-5740-B9BC-DE29721DC27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFABE5E-5583-F14B-BFE8-554ADD0EAEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -10526,8 +10526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11727,8 +11727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68E42E2-294A-9347-A83B-FE2A03CE7613}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12614,7 +12614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>3008</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>3006</v>
       </c>
@@ -25339,21 +25339,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -25524,24 +25509,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25558,4 +25541,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>